--- a/biology/Zoologie/Argoctenus/Argoctenus.xlsx
+++ b/biology/Zoologie/Argoctenus/Argoctenus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argoctenus est un genre d'araignées aranéomorphes de la famille des Miturgidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argoctenus est un genre d'araignées aranéomorphes de la famille des Miturgidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Océanie.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 24.5, 04/11/2023)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 24.5, 04/11/2023) :
 Argoctenus aureus (Hogg, 1911)
 Argoctenus australianus (Karsch, 1878)
 Argoctenus bidentatus (Main, 1954)
@@ -583,13 +599,15 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1878. Il est placé dans les Zoridae par Lehtinen en 1967[2] puis dans les Miturgidae par Ramírez en 2014[3].
-Miturgina[4] a été placé en synonymie par Simon en 1897[5].
-Horioctenoides[6] a été placé en synonymie par Forster et Wilton en 1973[7].
-Aenigma[8] Karsch, 1878, préoccupé par Aenigma Newman, 1836, remplacé par Aetola[9] par Karsch, 1880 puis de manière superflue par Aenigmaaranea[10] par Strand en 1929, a été placé en synonymie par Davies en 1985[11].
-Nemoctenus[7] a été placé en synonymie par Raven et Stumkat en 2003[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par L. Koch en 1878. Il est placé dans les Zoridae par Lehtinen en 1967 puis dans les Miturgidae par Ramírez en 2014.
+Miturgina a été placé en synonymie par Simon en 1897.
+Horioctenoides a été placé en synonymie par Forster et Wilton en 1973.
+Aenigma Karsch, 1878, préoccupé par Aenigma Newman, 1836, remplacé par Aetola par Karsch, 1880 puis de manière superflue par Aenigmaaranea par Strand en 1929, a été placé en synonymie par Davies en 1985.
+Nemoctenus a été placé en synonymie par Raven et Stumkat en 2003.
 </t>
         </is>
       </c>
@@ -618,7 +636,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>L. Koch, 1878 : Die Arachniden Australiens, nach der Natur beschrieben und abgebildet. Nürnberg, vol. 1, p. 969-1044 (texte intégral).</t>
         </is>
